--- a/pred_ohlcv/54_21/2020-01-25 FX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 FX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>87331.0175589312</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>87339.0175589312</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>92789.0175589312</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>91382.1895589312</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>96282.1895589312</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>97651.0473589312</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>97659.0473589312</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>95295.50275893121</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>95295.50275893121</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -808,7 +808,7 @@
         <v>92152.8194589312</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>87394.3883589312</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>73360.1993589312</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>73385.55275893121</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>72734.35235893121</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>78088.86705893121</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>83486.54465893121</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>83500.3390589312</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>83354.3390589312</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>83367.1680589312</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>83008.0604589312</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>83064.0672589312</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>76717.61665893121</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>76717.91665893121</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>67708.4764589312</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>62393.7339589312</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>50974.92785893119</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>53477.9657589312</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>55168.9657589312</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>55168.9657589312</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>55121.4417589312</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>54868.9689589312</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>55126.45490039608</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>54385.72690039608</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>54993.72690039608</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>54832.72690039608</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>54811.35790039608</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>54949.33890039608</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>55441.26920039608</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>39195.44260039607</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>39206.93880039607</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>38706.93880039607</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>30719.80800039607</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>22034.75810039607</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>23198.75810039607</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>23198.75810039607</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>23405.37620039607</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>23405.37620039607</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-76833.08289960392</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-76602.74319960392</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-76602.74319960392</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-79038.79019960393</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-78638.79019960393</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-74453.80039960392</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-72681.72009960392</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-65639.09109960392</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-72599.30309960392</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-76691.22939960391</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-84942.03039960391</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-25 FX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 FX ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>87339.0175589312</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>83354.3390589312</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>83367.1680589312</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>83008.0604589312</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>83064.0672589312</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>76717.61665893121</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>76725.61665893121</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>76717.91665893121</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>76749.58145893121</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>67708.4764589312</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>62260.9197589312</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>62393.7339589312</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>50974.92785893119</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>53477.9657589312</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>55168.9657589312</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>55168.9657589312</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>55121.4417589312</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>54868.9689589312</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>55126.45490039608</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>54385.72690039608</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>54993.72690039608</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>54832.72690039608</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>54811.35790039608</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>54949.33890039608</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>54677.33890039608</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>55672.08560039608</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>45604.43280039608</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>39471.57100039607</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>39195.44260039607</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>39206.93880039607</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>38706.93880039607</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>30719.80800039607</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>22034.75810039607</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>23198.75810039607</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>23198.75810039607</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>23405.37620039607</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>23405.37620039607</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-76833.08289960392</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-76602.74319960392</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-76602.74319960392</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-79038.79019960393</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-78638.79019960393</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-78638.79019960393</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-74453.80039960392</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-72681.72009960392</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-65639.09109960392</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-72599.30309960392</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-61326.08339960391</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-67946.07239960392</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-67938.07239960392</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-76691.22939960391</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-84942.03039960391</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
